--- a/일정표_최경훈.xlsx
+++ b/일정표_최경훈.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rg715\Desktop\Git\2021NGP_VTM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\경훈\Desktop\Fork\2021NGP_VTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF368C9-91BD-4498-99C3-999F0E058FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102333CB-FED1-4A7B-BA9C-8DF8F3F5B730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="315" windowWidth="21690" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2904" yWindow="816" windowWidth="17772" windowHeight="9672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
     <numFmt numFmtId="176" formatCode="##&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -381,22 +381,9 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -492,8 +479,16 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="8"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,12 +515,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2104,13 +2093,13 @@
     <xf numFmtId="177" fontId="4" fillId="3" borderId="34">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="7" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="7" borderId="39">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="8" borderId="55">
+    <xf numFmtId="177" fontId="10" fillId="6" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="6" borderId="39">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="7" borderId="55">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="1">
@@ -2120,7 +2109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2172,17 +2161,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2268,51 +2251,45 @@
     <xf numFmtId="177" fontId="11" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2325,34 +2302,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="10" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1">
@@ -2364,116 +2341,218 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="13" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="14" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="13" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="13" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="13" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="14" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="69" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="6" borderId="39" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="8" borderId="1" xfId="5" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="39" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2502,110 +2581,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="69" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="7" borderId="39" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="9" borderId="1" xfId="5" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="39" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="8" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2960,56 +2946,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD230"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK24" sqref="AK24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.8984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
-    <col min="3" max="36" width="2.77734375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="3.21875" style="1" customWidth="1"/>
-    <col min="38" max="78" width="2.77734375" style="1" customWidth="1"/>
-    <col min="79" max="79" width="1.21875" style="1" customWidth="1"/>
-    <col min="80" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="36" width="2.796875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="3.19921875" style="1" customWidth="1"/>
+    <col min="38" max="78" width="2.796875" style="1" customWidth="1"/>
+    <col min="79" max="79" width="1.19921875" style="1" customWidth="1"/>
+    <col min="80" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="120"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
       <c r="AG1" s="6"/>
       <c r="AH1" s="5"/>
       <c r="AI1" s="7"/>
@@ -3055,46 +3041,46 @@
       <c r="BW1" s="4"/>
     </row>
     <row r="2" spans="1:77" ht="12" customHeight="1" thickTop="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="118"/>
-      <c r="W2" s="118"/>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="118" t="s">
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="118"/>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="118"/>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="118"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="148"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
@@ -3138,96 +3124,96 @@
       <c r="BU2" s="5"/>
     </row>
     <row r="3" spans="1:77" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="124"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="39">
+      <c r="A3" s="154"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="37">
         <v>8</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="37">
         <v>9</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="37">
         <v>10</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="37">
         <v>11</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="37">
         <v>12</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="37">
         <v>13</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="37">
         <v>14</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="37">
         <v>15</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="37">
         <v>16</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="37">
         <v>17</v>
       </c>
-      <c r="M3" s="39">
+      <c r="M3" s="37">
         <v>18</v>
       </c>
-      <c r="N3" s="39">
+      <c r="N3" s="37">
         <v>19</v>
       </c>
-      <c r="O3" s="39">
+      <c r="O3" s="37">
         <v>20</v>
       </c>
-      <c r="P3" s="39">
+      <c r="P3" s="37">
         <v>21</v>
       </c>
-      <c r="Q3" s="39">
+      <c r="Q3" s="37">
         <v>22</v>
       </c>
-      <c r="R3" s="39">
+      <c r="R3" s="37">
         <v>23</v>
       </c>
-      <c r="S3" s="39">
+      <c r="S3" s="37">
         <v>24</v>
       </c>
-      <c r="T3" s="39">
+      <c r="T3" s="37">
         <v>25</v>
       </c>
-      <c r="U3" s="39">
+      <c r="U3" s="37">
         <v>26</v>
       </c>
-      <c r="V3" s="39">
+      <c r="V3" s="37">
         <v>27</v>
       </c>
-      <c r="W3" s="39">
+      <c r="W3" s="37">
         <v>28</v>
       </c>
-      <c r="X3" s="39">
+      <c r="X3" s="37">
         <v>29</v>
       </c>
-      <c r="Y3" s="40">
+      <c r="Y3" s="38">
         <v>30</v>
       </c>
-      <c r="Z3" s="41">
+      <c r="Z3" s="39">
         <v>1</v>
       </c>
-      <c r="AA3" s="39">
+      <c r="AA3" s="37">
         <v>2</v>
       </c>
-      <c r="AB3" s="39">
+      <c r="AB3" s="37">
         <v>3</v>
       </c>
-      <c r="AC3" s="39">
+      <c r="AC3" s="37">
         <v>4</v>
       </c>
-      <c r="AD3" s="39">
+      <c r="AD3" s="37">
         <v>5</v>
       </c>
-      <c r="AE3" s="39">
+      <c r="AE3" s="37">
         <v>6</v>
       </c>
-      <c r="AF3" s="42">
+      <c r="AF3" s="40">
         <v>7</v>
       </c>
       <c r="AG3" s="6"/>
@@ -3270,42 +3256,42 @@
       <c r="BR3" s="5"/>
     </row>
     <row r="4" spans="1:77" ht="15" customHeight="1" thickTop="1">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="134"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="137"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="138"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="118"/>
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="124"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
@@ -3349,13 +3335,13 @@
       <c r="BU4" s="5"/>
     </row>
     <row r="5" spans="1:77" ht="15" customHeight="1">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="140"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="126"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
@@ -3365,17 +3351,17 @@
       <c r="L5" s="12"/>
       <c r="M5" s="13"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
       <c r="S5" s="14"/>
       <c r="T5" s="15"/>
       <c r="U5" s="16"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="64"/>
+      <c r="W5" s="60"/>
       <c r="X5" s="14"/>
-      <c r="Y5" s="27"/>
+      <c r="Y5" s="25"/>
       <c r="Z5" s="14"/>
       <c r="AA5" s="12"/>
       <c r="AB5" s="13"/>
@@ -3426,15 +3412,15 @@
       <c r="BU5" s="5"/>
     </row>
     <row r="6" spans="1:77" ht="15" customHeight="1">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="111"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="53"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
       <c r="J6" s="12"/>
@@ -3442,17 +3428,17 @@
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
       <c r="S6" s="14"/>
       <c r="T6" s="15"/>
       <c r="U6" s="16"/>
       <c r="V6" s="12"/>
-      <c r="W6" s="64"/>
+      <c r="W6" s="60"/>
       <c r="X6" s="14"/>
-      <c r="Y6" s="27"/>
+      <c r="Y6" s="25"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="13"/>
@@ -3503,42 +3489,42 @@
       <c r="BU6" s="5"/>
     </row>
     <row r="7" spans="1:77" ht="15" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="19"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="18"/>
       <c r="U7" s="8"/>
       <c r="V7" s="9"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="18"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="17"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="10"/>
-      <c r="AC7" s="18"/>
+      <c r="AC7" s="17"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
-      <c r="AF7" s="19"/>
+      <c r="AF7" s="18"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
@@ -3582,33 +3568,33 @@
       <c r="BU7" s="5"/>
     </row>
     <row r="8" spans="1:77" ht="15" customHeight="1">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="116"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="45"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="14"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="151"/>
+      <c r="H8" s="137"/>
       <c r="I8" s="14"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
       <c r="N8" s="14"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
       <c r="S8" s="14"/>
       <c r="T8" s="15"/>
       <c r="U8" s="16"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="64"/>
+      <c r="W8" s="60"/>
       <c r="X8" s="14"/>
-      <c r="Y8" s="27"/>
+      <c r="Y8" s="25"/>
       <c r="Z8" s="14"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="13"/>
@@ -3659,33 +3645,33 @@
       <c r="BU8" s="5"/>
     </row>
     <row r="9" spans="1:77" ht="15" customHeight="1">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="116"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="45"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="14"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="49"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
       <c r="S9" s="14"/>
       <c r="T9" s="15"/>
       <c r="U9" s="16"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="64"/>
+      <c r="W9" s="60"/>
       <c r="X9" s="14"/>
-      <c r="Y9" s="27"/>
+      <c r="Y9" s="25"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="12"/>
       <c r="AB9" s="13"/>
@@ -3736,33 +3722,33 @@
       <c r="BU9" s="5"/>
     </row>
     <row r="10" spans="1:77" ht="15" customHeight="1">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="116"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="45"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="14"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="13"/>
       <c r="I10" s="14"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
       <c r="S10" s="14"/>
       <c r="T10" s="15"/>
       <c r="U10" s="16"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="64"/>
+      <c r="W10" s="60"/>
       <c r="X10" s="14"/>
-      <c r="Y10" s="27"/>
+      <c r="Y10" s="25"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="13"/>
@@ -3813,40 +3799,40 @@
       <c r="BU10" s="5"/>
     </row>
     <row r="11" spans="1:77" ht="15" customHeight="1">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="116"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="45"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="14"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
       <c r="I11" s="14"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
       <c r="S11" s="14"/>
       <c r="T11" s="15"/>
-      <c r="U11" s="152"/>
+      <c r="U11" s="138"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="64"/>
+      <c r="W11" s="60"/>
       <c r="X11" s="14"/>
-      <c r="Y11" s="27"/>
+      <c r="Y11" s="25"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="13"/>
       <c r="AC11" s="14"/>
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
-      <c r="AF11" s="27"/>
+      <c r="AF11" s="25"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
@@ -3890,42 +3876,42 @@
       <c r="BU11" s="5"/>
     </row>
     <row r="12" spans="1:77" ht="15" customHeight="1">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="153"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="158"/>
-      <c r="P12" s="158"/>
-      <c r="Q12" s="158"/>
-      <c r="R12" s="158"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="142"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="141"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="144"/>
       <c r="S12" s="14"/>
       <c r="T12" s="15"/>
       <c r="U12" s="16"/>
       <c r="V12" s="12"/>
-      <c r="W12" s="159"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="156"/>
-      <c r="AB12" s="157"/>
-      <c r="AC12" s="155"/>
-      <c r="AD12" s="156"/>
-      <c r="AE12" s="156"/>
-      <c r="AF12" s="153"/>
+      <c r="W12" s="145"/>
+      <c r="X12" s="141"/>
+      <c r="Y12" s="146"/>
+      <c r="Z12" s="141"/>
+      <c r="AA12" s="142"/>
+      <c r="AB12" s="143"/>
+      <c r="AC12" s="141"/>
+      <c r="AD12" s="142"/>
+      <c r="AE12" s="142"/>
+      <c r="AF12" s="139"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
@@ -3973,12 +3959,12 @@
       <c r="BY12" s="5"/>
     </row>
     <row r="13" spans="1:77" ht="15" customHeight="1">
-      <c r="A13" s="161" t="s">
+      <c r="A13" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="111"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="45"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="14"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -3989,17 +3975,17 @@
       <c r="L13" s="12"/>
       <c r="M13" s="13"/>
       <c r="N13" s="14"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
       <c r="S13" s="14"/>
       <c r="T13" s="15"/>
       <c r="U13" s="16"/>
       <c r="V13" s="12"/>
-      <c r="W13" s="64"/>
+      <c r="W13" s="60"/>
       <c r="X13" s="14"/>
-      <c r="Y13" s="27"/>
+      <c r="Y13" s="25"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="13"/>
@@ -4054,12 +4040,12 @@
       <c r="BY13" s="5"/>
     </row>
     <row r="14" spans="1:77" ht="15" customHeight="1">
-      <c r="A14" s="161" t="s">
+      <c r="A14" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="111"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="45"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="14"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -4070,17 +4056,17 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
       <c r="S14" s="14"/>
       <c r="T14" s="15"/>
       <c r="U14" s="16"/>
       <c r="V14" s="12"/>
-      <c r="W14" s="64"/>
+      <c r="W14" s="60"/>
       <c r="X14" s="14"/>
-      <c r="Y14" s="27"/>
+      <c r="Y14" s="25"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="13"/>
@@ -4135,12 +4121,12 @@
       <c r="BY14" s="5"/>
     </row>
     <row r="15" spans="1:77" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="161" t="s">
+      <c r="A15" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="111"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="45"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="14"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4151,17 +4137,17 @@
       <c r="L15" s="12"/>
       <c r="M15" s="13"/>
       <c r="N15" s="14"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
       <c r="S15" s="14"/>
       <c r="T15" s="15"/>
-      <c r="U15" s="152"/>
+      <c r="U15" s="138"/>
       <c r="V15" s="12"/>
-      <c r="W15" s="64"/>
+      <c r="W15" s="60"/>
       <c r="X15" s="14"/>
-      <c r="Y15" s="27"/>
+      <c r="Y15" s="25"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="13"/>
@@ -4216,42 +4202,42 @@
       <c r="BY15" s="5"/>
     </row>
     <row r="16" spans="1:77" ht="15" customHeight="1">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="103"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="98"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="31"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="29"/>
       <c r="AB16" s="10"/>
-      <c r="AC16" s="18"/>
+      <c r="AC16" s="17"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
-      <c r="AF16" s="28"/>
+      <c r="AF16" s="26"/>
       <c r="AG16" s="6"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
@@ -4299,33 +4285,33 @@
       <c r="BY16" s="5"/>
     </row>
     <row r="17" spans="1:77" ht="15" customHeight="1">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="45"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="14"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="101"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="96"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="13"/>
       <c r="N17" s="14"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
       <c r="U17" s="16"/>
       <c r="V17" s="12"/>
-      <c r="W17" s="64"/>
+      <c r="W17" s="60"/>
       <c r="X17" s="12"/>
-      <c r="Y17" s="27"/>
+      <c r="Y17" s="25"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="13"/>
@@ -4380,34 +4366,34 @@
       <c r="BY17" s="5"/>
     </row>
     <row r="18" spans="1:77" ht="15" customHeight="1">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="45"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="14"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="101"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="96"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="13"/>
       <c r="N18" s="14"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
       <c r="S18" s="14"/>
       <c r="T18" s="15"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="52"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="48"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="13"/>
       <c r="AC18" s="14"/>
@@ -4461,34 +4447,34 @@
       <c r="BY18" s="5"/>
     </row>
     <row r="19" spans="1:77" ht="15" customHeight="1">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="45"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="14"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="101"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="96"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="13"/>
       <c r="N19" s="14"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
       <c r="S19" s="14"/>
       <c r="T19" s="15"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="52"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="48"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="13"/>
       <c r="AC19" s="14"/>
@@ -4542,42 +4528,42 @@
       <c r="BY19" s="5"/>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="35"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="33"/>
       <c r="U20" s="8"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="61"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="38"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="36"/>
       <c r="AG20" s="6"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
@@ -4625,40 +4611,40 @@
       <c r="BY20" s="5"/>
     </row>
     <row r="21" spans="1:77" ht="15" customHeight="1">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="58" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="25"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="67"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="23"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
@@ -4706,40 +4692,40 @@
       <c r="BY21" s="5"/>
     </row>
     <row r="22" spans="1:77" ht="15" customHeight="1">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="58" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="11"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="73"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="25"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="69"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="23"/>
       <c r="AG22" s="6"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
@@ -4787,42 +4773,42 @@
       <c r="BY22" s="5"/>
     </row>
     <row r="23" spans="1:77" ht="15" customHeight="1">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="77"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="73"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
@@ -4870,40 +4856,40 @@
       <c r="BY23" s="5"/>
     </row>
     <row r="24" spans="1:77" ht="15" customHeight="1">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="58" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="11"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="78"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="71"/>
+      <c r="AF24" s="74"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
@@ -4951,40 +4937,40 @@
       <c r="BY24" s="5"/>
     </row>
     <row r="25" spans="1:77" ht="15" customHeight="1">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="11"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="76"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="72"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
@@ -5030,40 +5016,40 @@
       <c r="BY25" s="5"/>
     </row>
     <row r="26" spans="1:77" ht="15" customHeight="1">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="80"/>
-      <c r="AF26" s="81"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="76"/>
+      <c r="AF26" s="77"/>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
@@ -5109,40 +5095,40 @@
       <c r="BY26" s="5"/>
     </row>
     <row r="27" spans="1:77" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="83"/>
-      <c r="B27" s="84" t="s">
+      <c r="A27" s="79"/>
+      <c r="B27" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="88"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="87"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="87"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="97"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="84"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="85"/>
+      <c r="AC27" s="86"/>
+      <c r="AD27" s="83"/>
+      <c r="AE27" s="92"/>
+      <c r="AF27" s="93"/>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
@@ -13151,7 +13137,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13165,7 +13151,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/일정표_최경훈.xlsx
+++ b/일정표_최경훈.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\경훈\Desktop\Fork\2021NGP_VTM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rg715\Desktop\Git\2021NGP_VTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102333CB-FED1-4A7B-BA9C-8DF8F3F5B730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25030A7B-3D05-4150-8EFD-8857E505F4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2904" yWindow="816" windowWidth="17772" windowHeight="9672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7215" yWindow="705" windowWidth="21240" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
     <numFmt numFmtId="176" formatCode="##&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -394,13 +394,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="7" tint="0.39997558519241921"/>
       <name val="한컴 고딕"/>
@@ -484,6 +477,29 @@
       <strike/>
       <sz val="8"/>
       <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="8"/>
+      <name val="한컴 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="8"/>
+      <name val="Arial Unicode MS"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2272,9 +2288,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2284,12 +2297,6 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2311,16 +2318,16 @@
     <xf numFmtId="177" fontId="10" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2329,7 +2336,7 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1">
@@ -2344,7 +2351,7 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2419,140 +2426,152 @@
     <xf numFmtId="177" fontId="11" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="69" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="6" borderId="39" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="8" borderId="1" xfId="5" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="39" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="69" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="6" borderId="39" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="8" borderId="1" xfId="5" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="39" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="7" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2581,16 +2600,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2946,56 +2962,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD230"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="30.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
-    <col min="3" max="36" width="2.796875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="3.19921875" style="1" customWidth="1"/>
-    <col min="38" max="78" width="2.796875" style="1" customWidth="1"/>
-    <col min="79" max="79" width="1.19921875" style="1" customWidth="1"/>
-    <col min="80" max="16384" width="8.8984375" style="1"/>
+    <col min="3" max="36" width="2.77734375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="3.21875" style="1" customWidth="1"/>
+    <col min="38" max="78" width="2.77734375" style="1" customWidth="1"/>
+    <col min="79" max="79" width="1.21875" style="1" customWidth="1"/>
+    <col min="80" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="150"/>
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="150"/>
+      <c r="W1" s="150"/>
+      <c r="X1" s="150"/>
+      <c r="Y1" s="150"/>
+      <c r="Z1" s="150"/>
+      <c r="AA1" s="150"/>
+      <c r="AB1" s="150"/>
+      <c r="AC1" s="150"/>
+      <c r="AD1" s="150"/>
+      <c r="AE1" s="150"/>
+      <c r="AF1" s="151"/>
       <c r="AG1" s="6"/>
       <c r="AH1" s="5"/>
       <c r="AI1" s="7"/>
@@ -3041,46 +3057,46 @@
       <c r="BW1" s="4"/>
     </row>
     <row r="2" spans="1:77" ht="12" customHeight="1" thickTop="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="148" t="s">
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="148"/>
-      <c r="AE2" s="148"/>
-      <c r="AF2" s="148"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
@@ -3124,8 +3140,8 @@
       <c r="BU2" s="5"/>
     </row>
     <row r="3" spans="1:77" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="154"/>
-      <c r="B3" s="156"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="157"/>
       <c r="C3" s="37">
         <v>8</v>
       </c>
@@ -3256,42 +3272,42 @@
       <c r="BR3" s="5"/>
     </row>
     <row r="4" spans="1:77" ht="15" customHeight="1" thickTop="1">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="118"/>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="124"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="121"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
@@ -3335,13 +3351,13 @@
       <c r="BU4" s="5"/>
     </row>
     <row r="5" spans="1:77" ht="15" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="125"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="43"/>
-      <c r="E5" s="126"/>
+      <c r="E5" s="123"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
@@ -3359,7 +3375,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="16"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="60"/>
+      <c r="W5" s="57"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="25"/>
       <c r="Z5" s="14"/>
@@ -3412,14 +3428,14 @@
       <c r="BU5" s="5"/>
     </row>
     <row r="6" spans="1:77" ht="15" customHeight="1">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="106"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="15"/>
       <c r="D6" s="43"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="126"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="123"/>
       <c r="G6" s="49"/>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
@@ -3436,7 +3452,7 @@
       <c r="T6" s="15"/>
       <c r="U6" s="16"/>
       <c r="V6" s="12"/>
-      <c r="W6" s="60"/>
+      <c r="W6" s="57"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="25"/>
       <c r="Z6" s="14"/>
@@ -3489,24 +3505,24 @@
       <c r="BU6" s="5"/>
     </row>
     <row r="7" spans="1:77" ht="15" customHeight="1">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="136"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="133"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
       <c r="Q7" s="51"/>
@@ -3515,7 +3531,7 @@
       <c r="T7" s="18"/>
       <c r="U7" s="8"/>
       <c r="V7" s="9"/>
-      <c r="W7" s="61"/>
+      <c r="W7" s="58"/>
       <c r="X7" s="17"/>
       <c r="Y7" s="26"/>
       <c r="Z7" s="17"/>
@@ -3568,16 +3584,16 @@
       <c r="BU7" s="5"/>
     </row>
     <row r="8" spans="1:77" ht="15" customHeight="1">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="111"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="15"/>
       <c r="D8" s="43"/>
       <c r="E8" s="14"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="137"/>
+      <c r="H8" s="134"/>
       <c r="I8" s="14"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -3592,7 +3608,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="16"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="60"/>
+      <c r="W8" s="57"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="14"/>
@@ -3645,10 +3661,10 @@
       <c r="BU8" s="5"/>
     </row>
     <row r="9" spans="1:77" ht="15" customHeight="1">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="111"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="15"/>
       <c r="D9" s="43"/>
       <c r="E9" s="14"/>
@@ -3669,7 +3685,7 @@
       <c r="T9" s="15"/>
       <c r="U9" s="16"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="60"/>
+      <c r="W9" s="57"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="25"/>
       <c r="Z9" s="14"/>
@@ -3722,10 +3738,10 @@
       <c r="BU9" s="5"/>
     </row>
     <row r="10" spans="1:77" ht="15" customHeight="1">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="111"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="15"/>
       <c r="D10" s="43"/>
       <c r="E10" s="14"/>
@@ -3736,7 +3752,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
-      <c r="M10" s="137"/>
+      <c r="M10" s="134"/>
       <c r="N10" s="48"/>
       <c r="O10" s="50"/>
       <c r="P10" s="50"/>
@@ -3746,7 +3762,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="16"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="60"/>
+      <c r="W10" s="57"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="14"/>
@@ -3799,10 +3815,10 @@
       <c r="BU10" s="5"/>
     </row>
     <row r="11" spans="1:77" ht="15" customHeight="1">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="111"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="15"/>
       <c r="D11" s="43"/>
       <c r="E11" s="14"/>
@@ -3813,7 +3829,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
-      <c r="M11" s="137"/>
+      <c r="M11" s="134"/>
       <c r="N11" s="48"/>
       <c r="O11" s="50"/>
       <c r="P11" s="50"/>
@@ -3821,9 +3837,9 @@
       <c r="R11" s="50"/>
       <c r="S11" s="14"/>
       <c r="T11" s="15"/>
-      <c r="U11" s="138"/>
+      <c r="U11" s="135"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="60"/>
+      <c r="W11" s="57"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="14"/>
@@ -3876,42 +3892,42 @@
       <c r="BU11" s="5"/>
     </row>
     <row r="12" spans="1:77" ht="15" customHeight="1">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="142"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="141"/>
+      <c r="P12" s="141"/>
+      <c r="Q12" s="141"/>
+      <c r="R12" s="141"/>
       <c r="S12" s="14"/>
       <c r="T12" s="15"/>
       <c r="U12" s="16"/>
       <c r="V12" s="12"/>
-      <c r="W12" s="145"/>
-      <c r="X12" s="141"/>
-      <c r="Y12" s="146"/>
-      <c r="Z12" s="141"/>
-      <c r="AA12" s="142"/>
-      <c r="AB12" s="143"/>
-      <c r="AC12" s="141"/>
-      <c r="AD12" s="142"/>
-      <c r="AE12" s="142"/>
-      <c r="AF12" s="139"/>
+      <c r="W12" s="142"/>
+      <c r="X12" s="138"/>
+      <c r="Y12" s="143"/>
+      <c r="Z12" s="138"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="140"/>
+      <c r="AC12" s="138"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="139"/>
+      <c r="AF12" s="136"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
@@ -3959,10 +3975,10 @@
       <c r="BY12" s="5"/>
     </row>
     <row r="13" spans="1:77" ht="15" customHeight="1">
-      <c r="A13" s="147" t="s">
+      <c r="A13" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="106"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="15"/>
       <c r="D13" s="43"/>
       <c r="E13" s="14"/>
@@ -3983,7 +3999,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="16"/>
       <c r="V13" s="12"/>
-      <c r="W13" s="60"/>
+      <c r="W13" s="57"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="14"/>
@@ -4040,10 +4056,10 @@
       <c r="BY13" s="5"/>
     </row>
     <row r="14" spans="1:77" ht="15" customHeight="1">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="106"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="15"/>
       <c r="D14" s="43"/>
       <c r="E14" s="14"/>
@@ -4064,7 +4080,7 @@
       <c r="T14" s="15"/>
       <c r="U14" s="16"/>
       <c r="V14" s="12"/>
-      <c r="W14" s="60"/>
+      <c r="W14" s="57"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="14"/>
@@ -4121,10 +4137,10 @@
       <c r="BY14" s="5"/>
     </row>
     <row r="15" spans="1:77" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="147" t="s">
+      <c r="A15" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="106"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="15"/>
       <c r="D15" s="43"/>
       <c r="E15" s="14"/>
@@ -4143,9 +4159,9 @@
       <c r="R15" s="50"/>
       <c r="S15" s="14"/>
       <c r="T15" s="15"/>
-      <c r="U15" s="138"/>
+      <c r="U15" s="135"/>
       <c r="V15" s="12"/>
-      <c r="W15" s="60"/>
+      <c r="W15" s="57"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="14"/>
@@ -4202,10 +4218,10 @@
       <c r="BY15" s="5"/>
     </row>
     <row r="16" spans="1:77" ht="15" customHeight="1">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="145" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="18"/>
@@ -4213,8 +4229,8 @@
       <c r="E16" s="17"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="98"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="95"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -4224,14 +4240,14 @@
       <c r="P16" s="51"/>
       <c r="Q16" s="51"/>
       <c r="R16" s="51"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="65"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="62"/>
       <c r="AA16" s="29"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="17"/>
@@ -4285,17 +4301,17 @@
       <c r="BY16" s="5"/>
     </row>
     <row r="17" spans="1:77" ht="15" customHeight="1">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="158"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="15"/>
       <c r="D17" s="43"/>
       <c r="E17" s="14"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="96"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
@@ -4309,7 +4325,7 @@
       <c r="T17" s="48"/>
       <c r="U17" s="16"/>
       <c r="V17" s="12"/>
-      <c r="W17" s="60"/>
+      <c r="W17" s="57"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="25"/>
       <c r="Z17" s="14"/>
@@ -4366,17 +4382,17 @@
       <c r="BY17" s="5"/>
     </row>
     <row r="18" spans="1:77" ht="15" customHeight="1">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="158"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="15"/>
       <c r="D18" s="43"/>
       <c r="E18" s="14"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="96"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -4390,9 +4406,9 @@
       <c r="T18" s="15"/>
       <c r="U18" s="48"/>
       <c r="V18" s="48"/>
-      <c r="W18" s="60"/>
+      <c r="W18" s="57"/>
       <c r="X18" s="48"/>
-      <c r="Y18" s="64"/>
+      <c r="Y18" s="61"/>
       <c r="Z18" s="48"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="13"/>
@@ -4447,17 +4463,17 @@
       <c r="BY18" s="5"/>
     </row>
     <row r="19" spans="1:77" ht="15" customHeight="1">
-      <c r="A19" s="160" t="s">
+      <c r="A19" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="158"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="15"/>
       <c r="D19" s="43"/>
       <c r="E19" s="14"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="96"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -4471,9 +4487,9 @@
       <c r="T19" s="15"/>
       <c r="U19" s="48"/>
       <c r="V19" s="48"/>
-      <c r="W19" s="60"/>
+      <c r="W19" s="57"/>
       <c r="X19" s="48"/>
-      <c r="Y19" s="64"/>
+      <c r="Y19" s="61"/>
       <c r="Z19" s="48"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="13"/>
@@ -4528,7 +4544,7 @@
       <c r="BY19" s="5"/>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="158" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="28" t="s">
@@ -4539,8 +4555,8 @@
       <c r="E20" s="29"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="100"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="97"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
@@ -4554,14 +4570,14 @@
       <c r="T20" s="33"/>
       <c r="U20" s="8"/>
       <c r="V20" s="30"/>
-      <c r="W20" s="62"/>
+      <c r="W20" s="59"/>
       <c r="X20" s="31"/>
       <c r="Y20" s="34"/>
       <c r="Z20" s="35"/>
       <c r="AA20" s="35"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="57"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="56"/>
       <c r="AE20" s="29"/>
       <c r="AF20" s="36"/>
       <c r="AG20" s="6"/>
@@ -4611,7 +4627,7 @@
       <c r="BY20" s="5"/>
     </row>
     <row r="21" spans="1:77" ht="15" customHeight="1">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="159" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="11"/>
@@ -4620,8 +4636,8 @@
       <c r="E21" s="19"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="102"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="99"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -4635,13 +4651,13 @@
       <c r="T21" s="23"/>
       <c r="U21" s="24"/>
       <c r="V21" s="20"/>
-      <c r="W21" s="63"/>
+      <c r="W21" s="60"/>
       <c r="X21" s="21"/>
       <c r="Y21" s="27"/>
       <c r="Z21" s="19"/>
       <c r="AA21" s="19"/>
-      <c r="AB21" s="67"/>
-      <c r="AC21" s="68"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="65"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="23"/>
@@ -4692,7 +4708,7 @@
       <c r="BY21" s="5"/>
     </row>
     <row r="22" spans="1:77" ht="15" customHeight="1">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="159" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="11"/>
@@ -4701,8 +4717,8 @@
       <c r="E22" s="19"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="102"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="99"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -4716,14 +4732,14 @@
       <c r="T22" s="23"/>
       <c r="U22" s="24"/>
       <c r="V22" s="20"/>
-      <c r="W22" s="63"/>
+      <c r="W22" s="60"/>
       <c r="X22" s="21"/>
       <c r="Y22" s="27"/>
       <c r="Z22" s="19"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="22"/>
       <c r="AC22" s="21"/>
-      <c r="AD22" s="69"/>
+      <c r="AD22" s="66"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="23"/>
       <c r="AG22" s="6"/>
@@ -4773,10 +4789,10 @@
       <c r="BY22" s="5"/>
     </row>
     <row r="23" spans="1:77" ht="15" customHeight="1">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="75" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="42"/>
@@ -4784,8 +4800,8 @@
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="102"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="99"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -4799,7 +4815,7 @@
       <c r="T23" s="23"/>
       <c r="U23" s="24"/>
       <c r="V23" s="20"/>
-      <c r="W23" s="63"/>
+      <c r="W23" s="60"/>
       <c r="X23" s="21"/>
       <c r="Y23" s="27"/>
       <c r="Z23" s="19"/>
@@ -4807,8 +4823,8 @@
       <c r="AB23" s="22"/>
       <c r="AC23" s="21"/>
       <c r="AD23" s="42"/>
-      <c r="AE23" s="70"/>
-      <c r="AF23" s="73"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="70"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
@@ -4856,7 +4872,7 @@
       <c r="BY23" s="5"/>
     </row>
     <row r="24" spans="1:77" ht="15" customHeight="1">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="159" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="11"/>
@@ -4865,8 +4881,8 @@
       <c r="E24" s="19"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="99"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -4880,7 +4896,7 @@
       <c r="T24" s="23"/>
       <c r="U24" s="24"/>
       <c r="V24" s="20"/>
-      <c r="W24" s="63"/>
+      <c r="W24" s="60"/>
       <c r="X24" s="21"/>
       <c r="Y24" s="27"/>
       <c r="Z24" s="19"/>
@@ -4888,8 +4904,8 @@
       <c r="AB24" s="22"/>
       <c r="AC24" s="21"/>
       <c r="AD24" s="42"/>
-      <c r="AE24" s="71"/>
-      <c r="AF24" s="74"/>
+      <c r="AE24" s="68"/>
+      <c r="AF24" s="71"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
@@ -4937,7 +4953,7 @@
       <c r="BY24" s="5"/>
     </row>
     <row r="25" spans="1:77" ht="15" customHeight="1">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="159" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="11"/>
@@ -4946,8 +4962,8 @@
       <c r="E25" s="19"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="102"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="99"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
@@ -4961,7 +4977,7 @@
       <c r="T25" s="23"/>
       <c r="U25" s="24"/>
       <c r="V25" s="20"/>
-      <c r="W25" s="63"/>
+      <c r="W25" s="60"/>
       <c r="X25" s="21"/>
       <c r="Y25" s="27"/>
       <c r="Z25" s="19"/>
@@ -4970,7 +4986,7 @@
       <c r="AC25" s="21"/>
       <c r="AD25" s="42"/>
       <c r="AE25" s="47"/>
-      <c r="AF25" s="72"/>
+      <c r="AF25" s="69"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
@@ -5016,17 +5032,17 @@
       <c r="BY25" s="5"/>
     </row>
     <row r="26" spans="1:77" ht="15" customHeight="1">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="75"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="42"/>
       <c r="D26" s="46"/>
       <c r="E26" s="19"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="102"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="99"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -5040,7 +5056,7 @@
       <c r="T26" s="23"/>
       <c r="U26" s="24"/>
       <c r="V26" s="20"/>
-      <c r="W26" s="63"/>
+      <c r="W26" s="60"/>
       <c r="X26" s="21"/>
       <c r="Y26" s="27"/>
       <c r="Z26" s="19"/>
@@ -5048,8 +5064,8 @@
       <c r="AB26" s="22"/>
       <c r="AC26" s="21"/>
       <c r="AD26" s="42"/>
-      <c r="AE26" s="76"/>
-      <c r="AF26" s="77"/>
+      <c r="AE26" s="73"/>
+      <c r="AF26" s="74"/>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
@@ -5095,40 +5111,40 @@
       <c r="BY26" s="5"/>
     </row>
     <row r="27" spans="1:77" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="79"/>
-      <c r="B27" s="80" t="s">
+      <c r="A27" s="76"/>
+      <c r="B27" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="83"/>
-      <c r="AA27" s="83"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="86"/>
-      <c r="AD27" s="83"/>
-      <c r="AE27" s="92"/>
-      <c r="AF27" s="93"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="81"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="82"/>
+      <c r="AC27" s="83"/>
+      <c r="AD27" s="80"/>
+      <c r="AE27" s="89"/>
+      <c r="AF27" s="90"/>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
@@ -13137,7 +13153,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13151,7 +13167,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
